--- a/Assets/Player/Data/skillData.xlsx
+++ b/Assets/Player/Data/skillData.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Isometric-View-Game\Assets\ExcelImporter\Example\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Isometric_View_Game\Assets\Player\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285E1325-7DEA-4694-8953-621BF6C901B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C096220-D445-411E-BCEF-08651C4471A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="150" windowWidth="24810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillLevel" sheetId="2" r:id="rId1"/>
-    <sheet name="SkillList" sheetId="1" r:id="rId2"/>
+    <sheet name="SkillList" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillLevel" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>skillID</t>
   </si>
@@ -48,69 +37,86 @@
     <t>dmgPercent</t>
   </si>
   <si>
+    <t>skillType</t>
+  </si>
+  <si>
+    <t>basicAttack</t>
+  </si>
+  <si>
+    <t>Icons/basicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격해 {rageAmount}만큼의 분노를 생성합니다</t>
+  </si>
+  <si>
+    <t>whirlwind</t>
+  </si>
+  <si>
+    <t>Icons/whirlWind</t>
+  </si>
+  <si>
+    <t>Icons/jumpAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 휩쓸며 초당 {rangeAmount}만큼의 분노를 소모합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumpAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{rageAmount}만큼의 분노를 소모해 적을 공격합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>skillId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skillName</t>
-  </si>
-  <si>
-    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>targetingType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rageUseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rageAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>useType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skillIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>skillDesc</t>
-  </si>
-  <si>
-    <t>basicAttack</t>
-  </si>
-  <si>
-    <t>Icons/basicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격해 {rageAmount}만큼의 분노를 생성합니다</t>
-  </si>
-  <si>
-    <t>groundBreaker</t>
-  </si>
-  <si>
-    <t>Icons/groundbreaker</t>
-  </si>
-  <si>
-    <t>{rageAmount}만큼의 분노를 소모해 적을 공격합니다</t>
-  </si>
-  <si>
-    <t>whirlwind</t>
-  </si>
-  <si>
-    <t>Icons/whirlWind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,9 +133,9 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -392,6 +399,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="12.5703125" style="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="59.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>101001</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>102001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>102111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4953EF-DD5F-4562-B143-7D6F338FEFDD}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -399,9 +564,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>102001</v>
       </c>
@@ -423,7 +588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102001</v>
       </c>
@@ -434,7 +599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>102001</v>
       </c>
@@ -445,7 +610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>102001</v>
       </c>
@@ -456,7 +621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102001</v>
       </c>
@@ -465,157 +630,6 @@
       </c>
       <c r="C6">
         <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="59.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="12.75">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>101001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3">
-        <v>102001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A4">
-        <v>102111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
